--- a/sprintplan.xlsx
+++ b/sprintplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\lockers-lockedme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D08141-CC41-4E39-AA9E-07033ABCFE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDECD0F-0E1F-47AF-BE68-88BC2D3B0CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E50A6177-47FE-4283-9C4E-1BDEFD6A7733}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     <t>Submit Project</t>
   </si>
   <si>
-    <t>Retest Application</t>
+    <t>Regression Test</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="4">
-        <v>44624</v>
+        <v>44648</v>
       </c>
       <c r="E16" s="4">
         <v>37351</v>
@@ -892,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="4">
-        <v>44625</v>
+        <v>44648</v>
       </c>
       <c r="E17" s="4">
         <v>37352</v>
@@ -912,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="4">
-        <v>44625</v>
+        <v>44648</v>
       </c>
       <c r="E18" s="4">
         <v>37352</v>
@@ -932,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="4">
-        <v>44625</v>
+        <v>44641</v>
       </c>
       <c r="E19" s="4">
         <v>37352</v>

--- a/sprintplan.xlsx
+++ b/sprintplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\lockers-lockedme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDECD0F-0E1F-47AF-BE68-88BC2D3B0CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88B64C3-866D-43DB-91E1-F88128612985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E50A6177-47FE-4283-9C4E-1BDEFD6A7733}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>LockerMe Agile Project Plan</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>Pravallika</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Not Started</t>
   </si>
   <si>
     <t>Sprint #2: Develop and Execute</t>
@@ -235,11 +229,7 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -264,6 +254,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CF26CC-D03E-4F7B-908C-0AFFD55D0B15}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,363 +596,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>44641</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>37344</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>44642</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>37339</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>44643</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>37340</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>44644</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>37340</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>44641</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>37337</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>44648</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>37345</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>44648</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>37345</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>44649</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>37346</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>44649</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>37347</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>44651</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>37347</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>44648</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>37351</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>44648</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>37352</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>44648</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>37352</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>44641</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>37352</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>44625</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>37352</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
